--- a/Data_Farmbot_Test.xlsx
+++ b/Data_Farmbot_Test.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/dev/ttyACM0: Connection Successfully</t>
+          <t>/dev/tty0: Connection Successfully</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -438,39 +438,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1: Connected Successfully</t>
+          <t>0: Connected Successfully</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Save &amp; Display Capture Image</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Sucess</t>
         </is>
       </c>
     </row>

--- a/Data_Farmbot_Test.xlsx
+++ b/Data_Farmbot_Test.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/dev/tty0: Connection Successfully</t>
+          <t>/dev/ttyACM0: Connection Successfully</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -444,6 +444,303 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Move Amount X Axis (Up) 10mm</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-100.0(End of Coordinates)-10(Move Amount)=-110.0(Start of Coordinates)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-110.0(Start of Coordinates)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Move Amount X Axis (Up) 50mm</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-100.0(End of Coordinates)-10(Move Amount)=-110.0(Start of Coordinates)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-110.0(Start of Coordinates)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Move Amount X Axis (Up) 100mm</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-100.0(End of Coordinates)-10(Move Amount)=-110.0(Start of Coordinates)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-110.0(Start of Coordinates)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Move Amount X Axis (Up) 200mm</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-100.0(End of Coordinates)-10(Move Amount)=-110.0(Start of Coordinates)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-110.0(Start of Coordinates)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Move Amount X Axis (Up) 500mm</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-100.0(End of Coordinates)-10(Move Amount)=-110.0(Start of Coordinates)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-110.0(Start of Coordinates)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Move Amount X Axis (Down) 10mm</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-110.0(End of Coordinates)+10(Move Amount)=-100.0(Start of Coordinates)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-100.0(Start of Coordinates)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Move Amount X Axis (Down) 50mm</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-60.0(End of Coordinates)+50(Move Amount)=-10.0(Start of Coordinates)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-10.0(Start of Coordinates)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Move Amount X Axis (Down) 100mm</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-60.0(End of Coordinates)+50(Move Amount)=-10.0(Start of Coordinates)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-10.0(Start of Coordinates)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Move Amount X Axis (Down) 200mm</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-60.0(End of Coordinates)+50(Move Amount)=-10.0(Start of Coordinates)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-10.0(Start of Coordinates)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Move Amount X Axis (Down) 500mm</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-60.0(End of Coordinates)+50(Move Amount)=-10.0(Start of Coordinates)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-10.0(Start of Coordinates)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Move to Coordinates</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>X:-110.0, Y:0.0, Z:0.0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>X:-102.25, Y:0.0, Z:0.0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Failed</t>
         </is>
       </c>
     </row>

--- a/Data_Farmbot_Test.xlsx
+++ b/Data_Farmbot_Test.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,12 +411,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/dev/ttyACM0: Connection Successfully</t>
+          <t>/dev/tty0: Connection Refused</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -444,303 +444,6 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Move Amount X Axis (Up) 10mm</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-100.0(End of Coordinates)-10(Move Amount)=-110.0(Start of Coordinates)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-110.0(Start of Coordinates)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Move Amount X Axis (Up) 50mm</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>-100.0(End of Coordinates)-10(Move Amount)=-110.0(Start of Coordinates)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-110.0(Start of Coordinates)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Move Amount X Axis (Up) 100mm</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-100.0(End of Coordinates)-10(Move Amount)=-110.0(Start of Coordinates)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-110.0(Start of Coordinates)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Move Amount X Axis (Up) 200mm</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-100.0(End of Coordinates)-10(Move Amount)=-110.0(Start of Coordinates)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-110.0(Start of Coordinates)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Move Amount X Axis (Up) 500mm</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>-100.0(End of Coordinates)-10(Move Amount)=-110.0(Start of Coordinates)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-110.0(Start of Coordinates)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Move Amount X Axis (Down) 10mm</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-110.0(End of Coordinates)+10(Move Amount)=-100.0(Start of Coordinates)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-100.0(Start of Coordinates)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Move Amount X Axis (Down) 50mm</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-60.0(End of Coordinates)+50(Move Amount)=-10.0(Start of Coordinates)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-10.0(Start of Coordinates)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Move Amount X Axis (Down) 100mm</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-60.0(End of Coordinates)+50(Move Amount)=-10.0(Start of Coordinates)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>-10.0(Start of Coordinates)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Move Amount X Axis (Down) 200mm</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-60.0(End of Coordinates)+50(Move Amount)=-10.0(Start of Coordinates)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>-10.0(Start of Coordinates)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Move Amount X Axis (Down) 500mm</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>-60.0(End of Coordinates)+50(Move Amount)=-10.0(Start of Coordinates)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>-10.0(Start of Coordinates)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Move to Coordinates</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>X:-110.0, Y:0.0, Z:0.0</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>X:-102.25, Y:0.0, Z:0.0</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Failed</t>
         </is>
       </c>
     </row>

--- a/Data_Farmbot_Test.xlsx
+++ b/Data_Farmbot_Test.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,12 +411,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/dev/tty0: Connection Refused</t>
+          <t>/dev/ttyACM0: Connection Successfully</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Success</t>
         </is>
       </c>
     </row>
@@ -444,6 +444,33 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Move to Coordinates</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>X:410, Y:50, Z:0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>X:410.0, Y:197.73, Z:0.0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Failed</t>
         </is>
       </c>
     </row>

--- a/Data_Farmbot_Test.xlsx
+++ b/Data_Farmbot_Test.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,22 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -358,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A3:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -366,60 +353,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Output Needed</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Connect to Arduino</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Number Channel Arduino":Connected Successfully"</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>/dev/ttyACM0: Connection Successfully</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -444,33 +377,6 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Move to Coordinates</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>X:410, Y:50, Z:0</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>X:410.0, Y:197.73, Z:0.0</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Failed</t>
         </is>
       </c>
     </row>
